--- a/INF8480 - Systèmes répartis et infonuagique/DonneTP1Q1.xlsx
+++ b/INF8480 - Systèmes répartis et infonuagique/DonneTP1Q1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Documents\Poly\H-18\gitEti\H2018\INF8480 - Systèmes répartis et infonuagique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poly\H2018_1\INF8480 - Systèmes répartis et infonuagique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{3C313943-05EB-41C6-9DAB-ACEB3BB7C610}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -386,130 +386,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B939CF-21D1-4F27-8AA1-22137C6188D3}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
+        <f>LOG10(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2921</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <f>LOG10(C2)</f>
+        <v>3.4655315569735499</v>
+      </c>
+      <c r="E2">
         <v>939148</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <f>LOG10(E2)</f>
+        <v>5.9727340379726845</v>
+      </c>
+      <c r="G2">
         <v>1395078</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>LOG10(G2)</f>
+        <v>6.1445984900630801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">LOG10(A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>2714</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="1">LOG10(C3)</f>
+        <v>3.4336098433237181</v>
+      </c>
+      <c r="E3">
         <v>923894</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="2">LOG10(E3)</f>
+        <v>5.9656221467008086</v>
+      </c>
+      <c r="G3">
         <v>1160931</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="3">LOG10(G3)</f>
+        <v>6.0648064081883941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>3018</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3.4797192354395712</v>
+      </c>
+      <c r="E4">
         <v>889285</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>5.9490409669224675</v>
+      </c>
+      <c r="G4">
         <v>1232144</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>6.0906614665547352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>3510</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.5453071164658239</v>
+      </c>
+      <c r="E5">
         <v>990714</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>5.9959483001478819</v>
+      </c>
+      <c r="G5">
         <v>2032958</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>6.308128406401611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100000</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>10388</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4.0165319409572655</v>
+      </c>
+      <c r="E6">
         <v>1111158</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>6.0457758174011182</v>
+      </c>
+      <c r="G6">
         <v>9541134</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>6.9795999953198358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000000</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>64321</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>4.8083527877787331</v>
+      </c>
+      <c r="E7">
         <v>2166311</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>6.33572080496163</v>
+      </c>
+      <c r="G7">
         <v>86975704</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>7.9393979527065239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000000</v>
       </c>
       <c r="B8">
-        <v>14051698</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>21999304</v>
+        <v>2485560</v>
       </c>
       <c r="D8">
-        <v>875090181</v>
+        <f t="shared" si="1"/>
+        <v>6.395424251222515</v>
+      </c>
+      <c r="E8">
+        <v>13758649</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>7.1385757914103554</v>
+      </c>
+      <c r="G8">
+        <v>877504684</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>8.9432494433486021</v>
       </c>
     </row>
   </sheetData>

--- a/INF8480 - Systèmes répartis et infonuagique/DonneTP1Q1.xlsx
+++ b/INF8480 - Systèmes répartis et infonuagique/DonneTP1Q1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poly\H2018_1\INF8480 - Systèmes répartis et infonuagique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Poly\8-H18\INF8480 - Systèmes répartis et infonuagique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Taille</t>
   </si>
   <si>
-    <t>appelNormal (ns)</t>
+    <t>LOG (Taille)</t>
   </si>
   <si>
-    <t>appelRMILocal (ns)</t>
+    <t>Appel RMI Local (ns)</t>
   </si>
   <si>
-    <t>appelRMIDistant (ns)</t>
+    <t>Appel RMI Distant (ns)</t>
+  </si>
+  <si>
+    <t>Appel Normal (ns)</t>
+  </si>
+  <si>
+    <t>Log(Appel Normal)</t>
+  </si>
+  <si>
+    <t>Log(Appel RMI Local)</t>
+  </si>
+  <si>
+    <t>Log(Appel RMI Distant)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,12 +82,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,6 +126,1319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> des différents appels selon la taille du paramètre</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Appel Normal (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4655315569735499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4336098433237181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4797192354395712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5453071164658239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0165319409572655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8083527877787331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.395424251222515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-89DB-4B63-A8B5-57990D0B1ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Appel RMI Local (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.9727340379726845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9656221467008086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9490409669224675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9959483001478819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0457758174011182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.33572080496163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1385757914103554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-89DB-4B63-A8B5-57990D0B1ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Appel RMI Distant (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.1445984900630801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0648064081883941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0906614665547352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.308128406401611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9795999953198358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9393979527065239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9432494433486021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-89DB-4B63-A8B5-57990D0B1ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2042214032"/>
+        <c:axId val="2030084896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2042214032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>10^Taille</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030084896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2030084896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Log(temps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042214032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FD2444-E49B-44FF-AC85-AFC97CE10CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,244 +1740,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>LOG10(A2)</f>
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2921</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>LOG10(C2)</f>
         <v>3.4655315569735499</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>939148</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>LOG10(E2)</f>
         <v>5.9727340379726845</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1395078</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>LOG10(G2)</f>
         <v>6.1445984900630801</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f t="shared" ref="B3:B8" si="0">LOG10(A3)</f>
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2714</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D8" si="1">LOG10(C3)</f>
         <v>3.4336098433237181</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>923894</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F8" si="2">LOG10(E3)</f>
         <v>5.9656221467008086</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1160931</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H8" si="3">LOG10(G3)</f>
         <v>6.0648064081883941</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3018</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
         <v>3.4797192354395712</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>889285</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f t="shared" si="2"/>
         <v>5.9490409669224675</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1232144</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f t="shared" si="3"/>
         <v>6.0906614665547352</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3510</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
         <v>3.5453071164658239</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>990714</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>5.9959483001478819</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2032958</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="3"/>
         <v>6.308128406401611</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>100000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>10388</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>4.0165319409572655</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1111158</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>6.0457758174011182</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>9541134</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>6.9795999953198358</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1000000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>64321</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>4.8083527877787331</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2166311</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>6.33572080496163</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>86975704</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>7.9393979527065239</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>10000000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2485560</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>6.395424251222515</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>13758649</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>7.1385757914103554</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>877504684</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="3"/>
         <v>8.9432494433486021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>